--- a/biology/Botanique/Santoline_petit-cyprès/Santoline_petit-cyprès.xlsx
+++ b/biology/Botanique/Santoline_petit-cyprès/Santoline_petit-cyprès.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Santoline_petit-cypr%C3%A8s</t>
+          <t>Santoline_petit-cyprès</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Santolina chamaecyparissus
-La Santoline petit cyprès (Santolina chamaecyparissus), également appelée « sanguenite »[1], est une espèce de plante à fleurs de la famille des Astéracées appartenant au genre Santolina.
-En France, elle est native de la région méditerranéenne[2] et plantée ou subspontanée ailleurs. La santoline (gartoufa en arabe) la plus parfumée et la plus utilisée pousse dans le désert algérien.
+La Santoline petit cyprès (Santolina chamaecyparissus), également appelée « sanguenite », est une espèce de plante à fleurs de la famille des Astéracées appartenant au genre Santolina.
+En France, elle est native de la région méditerranéenne et plantée ou subspontanée ailleurs. La santoline (gartoufa en arabe) la plus parfumée et la plus utilisée pousse dans le désert algérien.
 Elle est plus connue et utilisée dans les soupes du mois sacré de ramadan particulièrement dans les régions de El Bayadh et Béchar.
 </t>
         </is>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Santoline_petit-cypr%C3%A8s</t>
+          <t>Santoline_petit-cyprès</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un sous-arbrisseau.
 Les feuilles, grisâtres, sont divisées en nombreux lobes comme celles d'un cyprès. Les fleurs sont jaunes.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Santoline_petit-cypr%C3%A8s</t>
+          <t>Santoline_petit-cyprès</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,13 +560,15 @@
           <t>Usages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Santoline petit-cyprès a de nombreux usages :
 culinaire,
-plante médicinale : le plus souvent, les fleurs et les feuilles sont transformées en décoction utilisée pour expulser les parasites intestinaux[3],
+plante médicinale : le plus souvent, les fleurs et les feuilles sont transformées en décoction utilisée pour expulser les parasites intestinaux,
 parfumerie : une huile parfumée peut être extraite de la plante. Les feuilles sont également appropriées pour une utilisation en pot pourri,
-antimite : les branches peuvent être suspendues dans des armoires pour repousser les mites[4],
+antimite : les branches peuvent être suspendues dans des armoires pour repousser les mites,
 succédané de tabac,
 cosmétique : utilisé comme tonique.
 Dans la soupe algérienne des régions de El Bayadh et Béchar, la santoline est utilisée moulue, on ne peut l'utiliser que dans la soupe (harira).
